--- a/data/momentum.xlsx
+++ b/data/momentum.xlsx
@@ -26,100 +26,114 @@
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>DXCM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>DexCom</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Inc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>33.91B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>NVDA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>NVIDIA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Corp</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>209.72B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>AMD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Advanced Micro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Devices Inc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>61.77B</t>
+      <t>MCF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Contango Oil &amp; Gas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Co</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>422.00M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>AAV.TO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Advantage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Oil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Gas Ltd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>340.18M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>SWN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Southwestern Energy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Co</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1.777B</t>
     </r>
   </si>
 </sst>
@@ -131,7 +145,7 @@
     <numFmt numFmtId="164" formatCode="0."/>
     <numFmt numFmtId="165" formatCode="0.%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -141,6 +155,10 @@
     <font>
       <sz val="11.5"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -520,23 +538,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
+    <row r="1" spans="1:5" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,16 +563,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2">
-        <v>359.63</v>
+        <v>3.27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3">
-        <v>2.0230000000000001</v>
+        <v>0.9123</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -561,13 +580,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>341.01</v>
+        <v>1.82</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3">
-        <v>1.3580000000000001</v>
+        <v>8.9800000000000005E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
@@ -578,18 +597,20 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>52.74</v>
+        <v>3.28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3">
-        <v>0.99470000000000003</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14"/>
     <row r="5" spans="1:5" ht="14"/>
     <row r="6" spans="1:5" ht="14"/>
+    <row r="7" spans="1:5" ht="14"/>
+    <row r="8" spans="1:5" ht="14"/>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
   <extLst>

--- a/data/momentum.xlsx
+++ b/data/momentum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="21320" windowHeight="12140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,144 +21,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>MCF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Contango Oil &amp; Gas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Co</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>422.00M</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>AAV.TO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Advantage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Oil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Gas Ltd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>340.18M</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>SWN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Southwestern Energy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> Co</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>1.777B</t>
-    </r>
+    <t>MKTX</t>
+  </si>
+  <si>
+    <t>MarketAxess Holdings Inc</t>
+  </si>
+  <si>
+    <t>18.14B</t>
+  </si>
+  <si>
+    <t>MSCI</t>
+  </si>
+  <si>
+    <t>MSCI Inc</t>
+  </si>
+  <si>
+    <t>28.22B</t>
+  </si>
+  <si>
+    <t>SPGI</t>
+  </si>
+  <si>
+    <t>S&amp;P Global Inc</t>
+  </si>
+  <si>
+    <t>74.94B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0."/>
-    <numFmt numFmtId="165" formatCode="0.%"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11.5"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -177,36 +76,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,79 +414,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="14">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>3.27</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1">
+        <v>478.56</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3">
-        <v>0.9123</v>
+      <c r="E1" s="1">
+        <v>0.64570000000000005</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="14">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>1.82</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2">
+        <v>337.53</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
-        <v>8.9800000000000005E-2</v>
+      <c r="E2" s="1">
+        <v>0.51629999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="14">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
-        <v>3.28</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3">
+        <v>311.08999999999997</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3">
-        <v>-1.7999999999999999E-2</v>
+      <c r="E3" s="1">
+        <v>0.47470000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14"/>
     <row r="5" spans="1:5" ht="14"/>
     <row r="6" spans="1:5" ht="14"/>
     <row r="7" spans="1:5" ht="14"/>
-    <row r="8" spans="1:5" ht="14"/>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
   <extLst>

--- a/data/momentum.xlsx
+++ b/data/momentum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="21320" windowHeight="12140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,45 +19,134 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>MKTX</t>
-  </si>
-  <si>
-    <t>MarketAxess Holdings Inc</t>
-  </si>
-  <si>
-    <t>18.14B</t>
-  </si>
-  <si>
-    <t>MSCI</t>
-  </si>
-  <si>
-    <t>MSCI Inc</t>
-  </si>
-  <si>
-    <t>28.22B</t>
-  </si>
-  <si>
-    <t>SPGI</t>
-  </si>
-  <si>
-    <t>S&amp;P Global Inc</t>
-  </si>
-  <si>
-    <t>74.94B</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>KSU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Kansas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> City</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Southern</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>14.08B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Trinity Industries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Inc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>CP.TO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Canadian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Pacific</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Railway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Ltd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>46.40B</t>
+    </r>
+  </si>
+  <si>
+    <t>TRN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0."/>
+    <numFmt numFmtId="165" formatCode="0.%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,13 +165,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,69 +526,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="3" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>478.56</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2">
+        <v>148.13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
-        <v>0.64570000000000005</v>
+      <c r="E1" s="3">
+        <v>0.28050000000000003</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2">
+        <v>22.19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.6158000000000001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.19220000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>337.53</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
-        <v>0.51629999999999998</v>
+      <c r="C3" s="2">
+        <v>342.09</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.1114</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>311.08999999999997</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.47470000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14"/>
-    <row r="5" spans="1:5" ht="14"/>
-    <row r="6" spans="1:5" ht="14"/>
-    <row r="7" spans="1:5" ht="14"/>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
   <extLst>

--- a/data/momentum.xlsx
+++ b/data/momentum.xlsx
@@ -19,61 +19,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>AMRS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>CARA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">GWPH </t>
-    </r>
-  </si>
-  <si>
-    <t>Amyris Inc</t>
-  </si>
-  <si>
-    <t>827.68M</t>
-  </si>
-  <si>
-    <t>Cara Therapeutics Inc</t>
-  </si>
-  <si>
-    <t>GW Pharmaceuticals PLC</t>
-  </si>
-  <si>
-    <t>796.94M</t>
-  </si>
-  <si>
-    <t>3.736B</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>ODFL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Old Dominion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Freight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Lines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Inc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>MAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Masco</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Corp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>14.09B</t>
+    </r>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>Fastenal Co</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0."/>
     <numFmt numFmtId="165" formatCode="0.%"/>
-    <numFmt numFmtId="166" formatCode="000.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -104,29 +137,34 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -460,98 +498,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" customWidth="1"/>
-    <col min="2" max="4" width="12" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5">
-        <v>0.26650000000000001</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>187.59</v>
+      </c>
+      <c r="D1" s="2">
+        <v>22.135999999999999</v>
+      </c>
+      <c r="E1" s="3">
+        <v>0.82050000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2" spans="1:5" ht="14">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>17.03</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>-0.1527</v>
+        <v>44.84</v>
+      </c>
+      <c r="D2">
+        <v>25.728000000000002</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>120.2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5">
-        <v>-0.28749999999999998</v>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>53.42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.42859999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="14"/>
-    <row r="13" spans="1:5" ht="14"/>
-    <row r="14" spans="1:5" ht="14"/>
-    <row r="15" spans="1:5" ht="14"/>
-    <row r="16" spans="1:5" ht="14"/>
+    <row r="4" spans="1:5" ht="14" customHeight="1"/>
+    <row r="5" spans="1:5" ht="14"/>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
   <extLst>
